--- a/Planilha de Testes/Planilha de Testes.xlsx
+++ b/Planilha de Testes/Planilha de Testes.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{059E87D7-20C9-4201-B18B-483AC05772EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Teste de Unidade</t>
   </si>
@@ -68,9 +67,6 @@
     <t>Sim ou Não</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Teste A/B</t>
   </si>
   <si>
@@ -83,15 +79,9 @@
     <t>A &gt; B ou B &gt; A</t>
   </si>
   <si>
-    <t>Mudança de posição de botão</t>
-  </si>
-  <si>
     <t>Cadastro de Clinte</t>
   </si>
   <si>
-    <t>Mudança de cor de barra de nav.</t>
-  </si>
-  <si>
     <t>Teste de Usabilidade</t>
   </si>
   <si>
@@ -128,20 +118,47 @@
     <t>Lucas</t>
   </si>
   <si>
-    <t>Mudança de gráficos</t>
-  </si>
-  <si>
-    <t>Mudança de exibição</t>
-  </si>
-  <si>
     <t>Cliente</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>Mudança no banco de dados</t>
+  </si>
+  <si>
+    <t>Versionamento</t>
+  </si>
+  <si>
+    <t>Relacionamento</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Botões podem estar melhor posicionados</t>
+  </si>
+  <si>
+    <t>Alterar o posicionamento dos elementos na tela para melhor harmonia visual</t>
+  </si>
+  <si>
+    <t>B&gt;A</t>
+  </si>
+  <si>
+    <t>A&gt;B</t>
+  </si>
+  <si>
+    <t>Os gráficos no A contém um melhor posicionamento do que o B</t>
+  </si>
+  <si>
+    <t>O tamanho dos ícones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +190,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,6 +293,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Ênfase2" xfId="1" builtinId="35"/>
@@ -609,25 +633,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -639,7 +663,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -660,9 +684,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -671,57 +695,67 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -730,17 +764,21 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -749,9 +787,9 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -770,110 +808,118 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -886,6 +932,6 @@
     <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>